--- a/Projects 2022/Sana Safinaz - Dolmen Mall Clifton Karachi/Running Bill No 2.xlsx
+++ b/Projects 2022/Sana Safinaz - Dolmen Mall Clifton Karachi/Running Bill No 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Pioneer\Projects 2022\Sana Safinaz - Dolmen Mall Clifton Karachi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Projects 2022\Sana Safinaz - Dolmen Mall Clifton Karachi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A04AED8-0704-437C-A1C2-6BA174DB8B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EBB38E-6681-425B-8770-2BF62257C1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PES summary" sheetId="9" r:id="rId1"/>
@@ -21,6 +21,7 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Fire!$A$1:$O$28</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="120">
   <si>
     <t>AIR GUIDE STEEL CRAFT
 SHAN INDUSTRIES ENGATECH
@@ -659,18 +660,6 @@
     <t>Add 4.5%</t>
   </si>
   <si>
-    <t>Grand payable amount</t>
-  </si>
-  <si>
-    <t>Add variation</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>Payable</t>
-  </si>
-  <si>
     <t>Prv Qty</t>
   </si>
   <si>
@@ -684,6 +673,9 @@
   </si>
   <si>
     <t>Variations Amount</t>
+  </si>
+  <si>
+    <t>RUNNING BILL NO 1</t>
   </si>
 </sst>
 </file>
@@ -691,11 +683,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -854,20 +846,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1346,9 +1324,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1376,7 +1354,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1412,7 +1390,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1443,13 +1421,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1460,21 +1438,21 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1482,8 +1460,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1493,7 +1471,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1501,14 +1479,14 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1517,10 +1495,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1529,10 +1507,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1544,10 +1522,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1556,19 +1534,8 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1583,6 +1550,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="8"/>
     </xf>
@@ -1628,20 +1610,53 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1655,53 +1670,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2007,6 +1983,34 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="PES summary"/>
+      <sheetName val="summary"/>
+      <sheetName val="HVAC"/>
+      <sheetName val="Fire"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="40">
+          <cell r="E40">
+            <v>3568560</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2299,10 +2303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4695B7-9FC9-46CF-A850-FB641529BE7D}">
-  <dimension ref="A3:E53"/>
+  <dimension ref="A3:E48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2327,22 +2331,22 @@
       <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
     </row>
     <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" s="36" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2900,10 +2904,10 @@
       <c r="E39" s="78"/>
     </row>
     <row r="40" spans="1:5" s="59" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="90" t="s">
+      <c r="A40" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="91"/>
+      <c r="B40" s="86"/>
       <c r="C40" s="58">
         <f>C38+C36</f>
         <v>1878460</v>
@@ -2918,10 +2922,10 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="59" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="90" t="s">
+      <c r="A41" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="91"/>
+      <c r="B41" s="86"/>
       <c r="C41" s="58"/>
       <c r="D41" s="58"/>
       <c r="E41" s="62">
@@ -2930,10 +2934,10 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="59" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="90" t="s">
+      <c r="A42" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="91"/>
+      <c r="B42" s="86"/>
       <c r="C42" s="58"/>
       <c r="D42" s="58"/>
       <c r="E42" s="81">
@@ -2941,49 +2945,30 @@
         <v>2401159.2000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C44" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="82"/>
-      <c r="E44" s="83">
-        <v>1030055</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C45" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" s="82"/>
-      <c r="E45" s="83">
-        <f>E44+E42</f>
-        <v>3431214.2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="C47" s="84" t="s">
+    <row r="46" spans="1:5" s="127" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="129" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="128">
+        <f>'[3]PES summary'!$E$40</f>
+        <v>3568560</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="127" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="129" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85">
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="C48" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" s="85"/>
-      <c r="E48" s="86">
-        <f>E45-E47</f>
-        <v>-68785.799999999814</v>
-      </c>
-    </row>
-    <row r="49" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="E47" s="128">
+        <f>E40</f>
+        <v>2297760</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="E48" s="128">
+        <f>SUM(E46:E47)</f>
+        <v>5866320</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A6:E6"/>
@@ -3027,22 +3012,22 @@
       <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
     </row>
     <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
+      <c r="A8" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" s="36" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3604,7 +3589,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="74" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C40" s="68">
         <f>Fire!J29</f>
@@ -3627,10 +3612,10 @@
       <c r="E41" s="78"/>
     </row>
     <row r="42" spans="1:5" s="59" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="90" t="s">
+      <c r="A42" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="91"/>
+      <c r="B42" s="86"/>
       <c r="C42" s="58"/>
       <c r="D42" s="58"/>
       <c r="E42" s="62">
@@ -3676,26 +3661,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="109" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="111"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="91"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="104" t="s">
@@ -3711,24 +3696,24 @@
       <c r="E2" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="88" t="s">
         <v>104</v>
       </c>
       <c r="H2" s="26"/>
-      <c r="I2" s="108" t="s">
+      <c r="I2" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108" t="s">
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
       <c r="P2" s="27" t="s">
         <v>5</v>
       </c>
@@ -3739,28 +3724,28 @@
       <c r="C3" s="105"/>
       <c r="D3" s="106"/>
       <c r="E3" s="106"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
       <c r="H3" s="26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I3" s="26" t="s">
         <v>105</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>6</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M3" s="26" t="s">
         <v>105</v>
       </c>
       <c r="N3" s="26" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O3" s="28" t="s">
         <v>6</v>
@@ -3789,7 +3774,7 @@
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
     </row>
-    <row r="5" spans="1:16" ht="247.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="264" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -4416,7 +4401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="132" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>4</v>
       </c>
@@ -4716,7 +4701,7 @@
       <c r="G28" s="21">
         <v>8000</v>
       </c>
-      <c r="H28" s="87">
+      <c r="H28" s="82">
         <v>4</v>
       </c>
       <c r="I28" s="21">
@@ -4950,12 +4935,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="H1:P1"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A27:E27"/>
@@ -4964,6 +4943,12 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="H1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="52" orientation="portrait" r:id="rId1"/>
@@ -4974,7 +4959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
@@ -4995,88 +4980,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="114" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="115"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="125" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="126"/>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="126" t="s">
+      <c r="C2" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="130" t="s">
+      <c r="D2" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108" t="s">
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
       <c r="O2" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A3" s="127"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
       <c r="G3" s="26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>105</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J3" s="28" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L3" s="26" t="s">
         <v>105</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N3" s="28" t="s">
         <v>6</v>
@@ -5086,31 +5071,31 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="125"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="109"/>
     </row>
     <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -5232,12 +5217,12 @@
       </c>
     </row>
     <row r="8" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -5359,12 +5344,12 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -5729,12 +5714,12 @@
       </c>
     </row>
     <row r="19" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="121"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -5803,12 +5788,12 @@
       </c>
     </row>
     <row r="21" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="120" t="s">
+      <c r="A21" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="121"/>
+      <c r="B21" s="111"/>
       <c r="C21" s="122"/>
-      <c r="D21" s="121"/>
+      <c r="D21" s="111"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -6083,12 +6068,12 @@
       </c>
     </row>
     <row r="27" spans="1:16" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="118" t="s">
+      <c r="A27" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
@@ -6111,25 +6096,37 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="116"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="117"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="117"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="117"/>
-      <c r="O28" s="117"/>
-      <c r="P28" s="117"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="119"/>
+      <c r="O28" s="119"/>
+      <c r="P28" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:P28"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A8:D8"/>
@@ -6137,18 +6134,6 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:P28"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="53" orientation="portrait" r:id="rId1"/>
